--- a/Excel/alternative_noise_reduction_techniques.xlsx
+++ b/Excel/alternative_noise_reduction_techniques.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parimal\Documents\GitHub\audacity-mr\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC8954C-8F7A-4A64-86C2-E4F2176EA622}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -124,113 +130,113 @@
     <t>(1000 ms) the gate will begin to slowly open (fade-in) 1 second before the sound level exceeds the Threshold, and will gradually close (fade-out) after the sound level drops below the Threshold for a period of 1 second. Longer gate times (up to 10 seconds) may be achieved by typing in the text box instead of using the slider.</t>
   </si>
   <si>
-    <t>वैकल्पिक नॉइस रिडक्शन टेक्निक - ऑडसेट मॅन्युअल</t>
-  </si>
-  <si>
-    <t>वैकल्पिक शोर कपात करण्याचे तंत्र</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
     <t>येथे जा: सुचालन, शोध</t>
   </si>
   <si>
-    <t>ऑडॅसीटीचा आवाज कमी करण्याचा प्रभाव टिप हिस, इलेक्ट्रिक फॅन्स किंवा हम्स सारख्या स्थिर पार्श्वभूमी आवाज कमी करण्यासाठी केला जाऊ शकतो. पार्श्वभूमीवर बोलणे किंवा संगीत काढून टाकण्यासाठी हे फार चांगले कार्य करणार नाही. दोन चरण आहेत:</t>
-  </si>
-  <si>
-    <t>ऑडिटीला एक "आवाज प्रोफाइल" दर्शवा - चा एक छोटा विभाग</t>
-  </si>
-  <si>
-    <t>केवळ आवाज कमी करणारा ऑडिओ</t>
-  </si>
-  <si>
-    <t>सर्व ऑडिओवर ध्वनी प्रोफाइल लागू करण्यासाठी प्रभावावर परत या.</t>
-  </si>
-  <si>
     <t>सामग्री</t>
   </si>
   <si>
-    <t>1 खाच फिल्टर</t>
-  </si>
-  <si>
-    <t>2 वर्णक्रमीय संपादन</t>
-  </si>
-  <si>
-    <t>3 शोर गेट</t>
-  </si>
-  <si>
-    <t>1.१ नेयक्विस्ट नॉइस गेट प्लग-इन</t>
-  </si>
-  <si>
-    <t>खाच फिल्टर</t>
-  </si>
-  <si>
-    <t>समजा की आपण आपला ऑडिओ ऑडॅसिटीमध्ये लोड केला आहे आणि त्या ऐकला आहे, केवळ काही प्रकारच्या सतत, बर्‍यापैकी शुद्ध टोनमुळे तो दूषित आहे हे शोधण्यासाठी केवळ निराश व्हाल. हे एक प्रकरण आहे जेथे आपल्याला नॉच फिल्टर प्रभाव वापरुन चांगले परिणाम मिळतील जे आपल्याला प्रभाव मेनूमधील विभाजकच्या खाली सापडतील.</t>
-  </si>
-  <si>
     <t>वर्णक्रमीय संपादन</t>
   </si>
   <si>
-    <t>सतत टोन किंवा चंचल आवाज ओळखण्यासाठी आणि दूर करण्यासाठी स्पेक्ट्रल एडिटिंग साधनांचा वापर करा.</t>
-  </si>
-  <si>
-    <t>आवाज गेट</t>
-  </si>
-  <si>
-    <t>ध्वनी गेट हा "ऑडिओ गेट" चा एक प्रकार आहे जो "ओपन" असतो आणि जेव्हा पातळी "उंबरा" पातळीच्या वर असते तेव्हा ध्वनी अनल्टरटरमध्ये जाऊ देते. जेव्हा ऑडिओ सिग्नल उंबरठा पातळीच्या खाली असेल, तेव्हा गेट "बंद" होतो आणि थांबतो, किंवा सिग्नल कमी करतो ज्यामुळे तो बराच शांत होतो. ध्वनी गेट सिग्नलमधून आवाज काढून टाकत नाही परंतु ध्वनी दरम्यान शांत कालावधी दरम्यान आवाज पातळी कमी करते. बर्‍याच परिस्थितींमध्ये हे उपयुक्त ठरू शकते.</t>
-  </si>
-  <si>
-    <t>जेव्हा रेकॉर्ड केलेल्या साहित्याने प्रभावीपणे मुखवटा घातलेला अत्यंत निम्न स्तराचा आवाज असतो तेव्हा ध्वनी गेट रेकॉर्डिंगच्या मूक भागांच्या दरम्यान ध्वनी पातळी कमी करू शकते जेथे निम्न स्तराचा आवाज अन्यथा स्पष्ट होईल.</t>
-  </si>
-  <si>
-    <t>उदाहरणः नॉईज गेट धीमे गोंगाट दूर करू शकतो जो 16-बिट ऑडिओ फायलींमध्ये मूक परिच्छेदांमधून स्पष्ट होऊ शकतो. 32-बिट डीफॉल्ट नमुना स्वरूप सक्षम करण्यासाठी आणि "उच्च-गुणवत्तेची" अक्षम करणे - अधिक स्पष्टीकरण येथे गुणवत्ता प्राधान्यांमध्ये निश्चित करा.</t>
-  </si>
-  <si>
-    <t>जेव्हा इतर पद्धतींनी आवाज कमी केल्याने ध्वनी गुणवत्तेचे अस्वीकार्य अधोगती उद्भवते, तेव्हा ध्वनी गेटमुळे ध्वनी दरम्यान वास्तविक रेकॉर्ड केलेल्या ध्वनीवर परिणाम न करता काही प्रमाणात आवाज कमी होऊ शकतो.</t>
-  </si>
-  <si>
-    <t>वास्तविक रेकॉर्ड केलेल्या ध्वनी सारख्याच प्रकारचा निम्न स्तराचा मधोमध आवाज येत असेल (उदाहरणार्थ, एखाद्या भाषण रेकॉर्डिंगमध्ये विराम देताना दूरदर्शन किंवा रेडिओचा आवाज ऐकू येत असेल तर) एक ध्वनी गेट विराम थांबवू शकतो.</t>
-  </si>
-  <si>
-    <t>ऑडसिटी नॉइस रिडक्शन इफेक्ट नंतर आवाजाचा दरवाजा वापरला जाऊ शकतो ज्यामुळे शांतता करावी.</t>
-  </si>
-  <si>
-    <t>Nyquist शोर गेट प्लग-इन</t>
-  </si>
-  <si>
-    <t>Nyquist शोर गेट प्लग-इन मध्ये बर्‍याच वैशिष्ट्ये आणि सेटिंग्ज आहेत ज्या त्यास प्रभावी आणि हानीकारक नसू शकतात. शोर गेट वापरताना सर्वात गंभीर सेवकापैकी एक म्हणजे थ्रेशोल्ड काळजीपूर्वक सेट करणे. हे प्लग-इन उंबरठा पातळी योग्यरित्या सेट करण्यात मदत करण्यासाठी विश्लेषण साधन प्रदान करते:</t>
-  </si>
-  <si>
-    <t>"फक्त आवाज" असणारी एक निवड करा आणि नॉइस गेट प्रभाव उघडा.</t>
-  </si>
-  <si>
-    <t>कार्य निवडा&gt; गोंगाट पातळीचे विश्लेषण करा आणि सूचित थ्रेशोल्ड पातळीची नोंद घ्या.</t>
-  </si>
-  <si>
-    <t>ऑडिओ ट्रॅकचा एक विभाग निवडा ज्यामध्ये आवाज आणि शांतता दोन्ही समाविष्ट आहेत.</t>
-  </si>
-  <si>
-    <t>खालील सेटिंग्जसह शोर गेट लागू करा: कार्य&gt; गेट पातळी कमी करणे&gt; -100 निवडा. आवाज कमी केला जात आहे आणि ऑडिओ अद्याप आहे हे तपासण्यासाठी निकाल काळजीपूर्वक ऐका. हा प्रभाव कदाचित अनैसर्गिक वाटेल कारण गेट पूर्णपणे बंद होताना आणि बंद झाल्यावर परिपूर्ण शांतता निर्माण होते, परंतु उंबराची पातळी योग्यरित्या सेट केली असल्यास हे आपल्याला सहज ऐकण्याची परवानगी देते. पूर्ववत करण्यासाठी CTRL + Z वर क्लिक करा आणि आवश्यक असल्यास उंबरठा स्तर समायोजित करा आणि पुन्हा परीक्षण करा.</t>
-  </si>
-  <si>
-    <t>जेव्हा आपण आनंदी आहात की उंबरठा पातळी योग्य आहे, तेव्हा "लेव्हल रिडक्शन" सेटिंग उच्चतम सेटिंगमध्ये वाढवा जी स्वीकार्य प्रमाणात गेटिंग तयार करते (-12 डीबीचे डीफॉल्ट स्तर सामान्यत: चांगले कार्य करते).</t>
-  </si>
-  <si>
-    <t>जेव्हा आपण सेटिंग्जमध्ये आनंदी असाल, तेव्हा संपूर्ण गाणे लागू करा.</t>
-  </si>
-  <si>
-    <t>प्रगत टीप: डीफॉल्टनुसार शोर गेट पूर्णपणे उघडण्यासाठी आणि पूर्णपणे बंद होण्यासाठी 1/4 सेकंद किंवा 250 मिलिसेकंद (एमएस) घेईल. काही बाबतींत गती वेगवान किंवा हळू हळू उघडणे इष्ट आहे. कमीतकमी (10 एमएस) ऑडिओ पातळी उंबरठा ओलांडल्यामुळे गेट जवळजवळ त्वरित उघडेल आणि बंद होईल. यामुळे गेटला 'फडफड' किंवा 'स्नॅप' होऊ शकते. जास्तीत जास्त</t>
-  </si>
-  <si>
-    <t>(1000 मि. एस) ध्वनी पातळी थ्रेशोल्ड ओलांडण्यापूर्वी 1 सेकंद हळू हळू (फिकट-इन) उघडण्यास प्रारंभ होईल आणि 1 सेकंदाच्या कालावधीसाठी ध्वनी पातळी थ्रेशोल्डच्या खाली गेल्यानंतर हळूहळू बंद होईल (फिकट-आउट). स्लाइडरचा वापर करण्याऐवजी मजल्यावरील बॉक्समध्ये टाइप करून (गतीवरील 10 सेकंदांपर्यंत) वेळ मिळू शकेल.</t>
+    <t>वैकल्पिक गोंगाट कपात तंत्र - ओड्यासिटी माहितीपुस्तिका</t>
+  </si>
+  <si>
+    <t>वैकल्पिक गोंगाट कपात करण्याचे तंत्र</t>
+  </si>
+  <si>
+    <t>ऑडसिटी विकास माहितीपुस्तिके वरुन</t>
+  </si>
+  <si>
+    <t>ओड्यासीटीचा आवाज कमी करण्याचा प्रभाव फीत आवाज, विद्युत पंखा किंवा हम्स सारख्या स्थिर पार्श्वभूमी आवाज कमी करण्यासाठी केला जाऊ शकतो. पार्श्वभूमीवर बोलणे किंवा संगीत काढून टाकण्यासाठी हे फार चांगले कार्य करणार नाही. दोन चरण आहेत:</t>
+  </si>
+  <si>
+    <t>ओड्यासिटीला एक "आवाज प्रोफाइल" दर्शवा - चा एक छोटा विभाग</t>
+  </si>
+  <si>
+    <t>केवळ आवाज कमी करणारा ध्वनी</t>
+  </si>
+  <si>
+    <t>सर्व ध्वनीवर ध्वनी प्रोफाइल लागू करण्यासाठी प्रभावावर परत या.</t>
+  </si>
+  <si>
+    <t>खाच चाळणी</t>
+  </si>
+  <si>
+    <t>सतत आवाज किंवा चंचल आवाज ओळखण्यासाठी आणि दूर करण्यासाठी वर्णक्रमीय संपादन साधनांचा वापर करा.</t>
+  </si>
+  <si>
+    <t>ध्वनी गेट हा "ध्वनी गेट" चा एक प्रकार आहे जो "उघडे" असतो आणि जेव्हा पातळी "उंबरा" पातळीच्या वर असते तेव्हा ध्वनी अबाधित असते. जेव्हा ध्वनी खुणा उंबरठा पातळीच्या खाली असेल, तेव्हा गेट "बंद" होतो आणि थांबतो, किंवा खुणा कमी करतो ज्यामुळे तो बराच शांत होतो. ध्वनी गेट खुणामधून आवाज काढून टाकत नाही परंतु ध्वनी दरम्यान शांत कालावधी दरम्यान आवाज पातळी कमी करते. बर्‍याच परिस्थितींमध्ये हे उपयुक्त ठरू शकते.</t>
+  </si>
+  <si>
+    <t>जेव्हा ध्वनिमुद्रित केलेल्या साहित्याने प्रभावीपणे मुखवटा घातलेला अत्यंत निम्न स्तराचा आवाज असतो तेव्हा ध्वनी गेट ध्वनिमुद्रणच्या मूक भागांच्या दरम्यान ध्वनी पातळी कमी करू शकते जेथे निम्न स्तराचा आवाज अन्यथा स्पष्ट होईल.</t>
+  </si>
+  <si>
+    <t>उदाहरणः गोंगाट गेट धीमे गोंगाट दूर करू शकतो जो १६-बिट ध्वनी धारीकांमध्ये मूक परिच्छेदांमधून स्पष्ट होऊ शकतो. ३२-बिट पूर्वनियोजित नमुना स्वरूप सक्षम करण्यासाठी आणि "उच्च-गुणवत्तेची" अक्षम करणे - अधिक स्पष्टीकरण येथे गुणवत्ता प्राधान्यांमध्ये निश्चित करा.</t>
+  </si>
+  <si>
+    <t>जेव्हा इतर पद्धतींनी आवाज कमी केल्याने ध्वनी गुणवत्तेचे अस्वीकार्य अधोगती उद्भवते, तेव्हा ध्वनी गेटमुळे ध्वनी दरम्यान वास्तविक ध्वनीमुद्रण केलेल्या ध्वनीवर परिणाम न करता काही प्रमाणात आवाज कमी होऊ शकतो.</t>
+  </si>
+  <si>
+    <t>वास्तविक ध्वनीमुद्रण केलेल्या ध्वनी सारख्याच प्रकारचा निम्न स्तराचा मधोमध आवाज येत असेल (उदाहरणार्थ, एखाद्या भाषण ध्वनीमुद्रणामध्ये विराम देताना दूरदर्शन किंवा रेडिओचा आवाज ऐकू येत असेल तर) एक ध्वनी गेट विराम थांबवू शकतो.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी गोंगाट कपात प्रभाव नंतर आवाजाचा दरवाजा वापरला जाऊ शकतो ज्यामुळे शांतता करावी.</t>
+  </si>
+  <si>
+    <t>Nyquist गोंगाट गेट प्लग-इन</t>
+  </si>
+  <si>
+    <t>Nyquist गोंगाट गेट प्लग-इन मध्ये बर्‍याच वैशिष्ट्ये आणि समायोजन आहेत ज्या त्यास प्रभावी आणि हानीकारक नसू शकतात. शोर गेट वापरताना सर्वात गंभीर सेवकापैकी एक म्हणजे उंबरठा काळजीपूर्वक स्थापित करणे. हे प्लग-इन उंबरठा पातळी योग्यरित्या स्थापित करण्यात मदत करण्यासाठी विश्लेषण साधन प्रदान करते:</t>
+  </si>
+  <si>
+    <t>"फक्त आवाज" असणारी एक निवड करा आणि गोंगाट गेट प्रभाव उघडा.</t>
+  </si>
+  <si>
+    <t>कार्य निवडा&gt; गोंगाट पातळीचे विश्लेषण करा आणि सूचित उंबरठा पातळीची नोंद घ्या.</t>
+  </si>
+  <si>
+    <t>ध्वनी गेत्तपट्टाचा एक विभाग निवडा ज्यामध्ये आवाज आणि शांतता दोन्ही समाविष्ट आहेत.</t>
+  </si>
+  <si>
+    <t>खालील समायोजनसह गोंगाट गेट लागू करा: कार्य&gt; गेट पातळी कमी करणे&gt; -१०० निवडा. आवाज कमी केला जात आहे आणि ध्वनीअद्याप आहे हे तपासण्यासाठी निकाल काळजीपूर्वक ऐका. हा प्रभाव कदाचित अनैसर्गिक वाटेल कारण गेट पूर्णपणे बंद होताना आणि बंद झाल्यावर परिपूर्ण शांतता निर्माण होते, परंतु उंबराची पातळी योग्यरित्या स्थापित केली असल्यास हे आपल्याला सहज ऐकण्याची परवानगी देते. पूर्ववत करण्यासाठी CTRL + Z वर क्लिक करा आणि आवश्यक असल्यास उंबरठा स्तर समायोजित करा आणि पुन्हा परीक्षण करा.</t>
+  </si>
+  <si>
+    <t>जेव्हा आपण आनंदी आहात की उंबरठा पातळी योग्य आहे, तेव्हा "पातळी कपात" समायोजन उच्चतम समायोजनमध्ये वाढवा जी स्वीकार्य प्रमाणात गेटिंग तयार करते (-१२ डीबीचे पूर्वनियोजित स्तर सामान्यत: चांगले कार्य करते).</t>
+  </si>
+  <si>
+    <t>जेव्हा आपण समायोजनमध्ये आनंदी असाल, तेव्हा संपूर्ण गाणे लागू करा.</t>
+  </si>
+  <si>
+    <t>प्रगत टीप: पूर्वनियोजितनुसार गोंगाट गेट पूर्णपणे उघडण्यासाठी आणि पूर्णपणे बंद होण्यासाठी १/४ सेकंद किंवा २५० मिलिसेकंद (एमएस) घेईल. काही बाबतींत गती वेगवान किंवा हळू हळू उघडणे इष्ट आहे. कमीतकमी (१० एमएस) ध्वनी पातळी उंबरठा ओलांडल्यामुळे गेट जवळजवळ त्वरित उघडेल आणि बंद होईल. यामुळे गेटला 'फडफड' किंवा 'स्नॅप' होऊ शकते. जास्तीत जास्त</t>
+  </si>
+  <si>
+    <t>(१००० मि. एस) ध्वनी पातळी उंबरठा ओलांडण्यापूर्वी १ सेकंद हळू हळू (फिकट-आत) उघडण्यास प्रारंभ होईल आणि १ सेकंदाच्या कालावधीसाठी ध्वनी पातळी उंबरठाच्या खाली गेल्यानंतर हळूहळू बंद होईल (फिकट-बाहेर). घसरपट्टीचा वापर करण्याऐवजी मजल्यावरील खोक्यामध्ये टाइप करून (गतीवरील १० सेकंदांपर्यंत) वेळ मिळू शकेल.</t>
+  </si>
+  <si>
+    <t>३ गोंगाट दरवाजा</t>
+  </si>
+  <si>
+    <t>१ खाच चाळणी</t>
+  </si>
+  <si>
+    <t>२ वर्णक्रमीय संपादन</t>
+  </si>
+  <si>
+    <t>३.१ नेयक्विस्ट नॉइस दरवाजा प्लग-इन</t>
+  </si>
+  <si>
+    <t>समजा की आपण आपला ध्वनी ओड्यासिटीमध्ये लोड केला आहे आणि त्या ऐकला आहे, केवळ काही प्रकारच्या सतत, बर्‍यापैकी शुद्ध आवाजामुळे तो दूषित आहे हे शोधण्यासाठी केवळ निराश व्हाल. हे एक प्रकरण आहे जेथे आपल्याला खाच चाळणी प्रभाव वापरुन चांगले परिणाम मिळतील जे आपल्याला प्रभाव यादीमधील विभाजकच्या खाली सापडतील.</t>
+  </si>
+  <si>
+    <t>गोंगाट दरवाजा</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,10 +288,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -293,6 +305,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -339,7 +359,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,9 +391,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,6 +443,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,393 +636,399 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="79.88671875" customWidth="1"/>
+    <col min="3" max="3" width="88.77734375" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="C31" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="C32" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C34" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
-        <v>69</v>
+      <c r="C35" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
